--- a/manager_C.xlsx
+++ b/manager_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,58 +446,997 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>V ry</t>
+          <t>AEF %</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Power Factor</t>
+          <t>% loss normal eb</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Curr_R</t>
+          <t>stop %</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>% loss idle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Doffing %</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>min/doff</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>doff min</t>
+          <t>rogue %   (b&gt;l)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Rogues (b&gt;l)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total M/c Stop time</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>eb total</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>eb idle</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>doffs</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>m/min</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57.09</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>23.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E9" t="n">
+        <v>51.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20.0 lbs-20/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>64.42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E16" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>30</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16.0 lbs-16/1 CRT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Avg. Count : 1.02 lbs</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E20" t="n">
+        <v>59.51</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>125</v>
+      </c>
+      <c r="M20" t="n">
+        <v>31</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19.46</v>
       </c>
     </row>
   </sheetData>
